--- a/src/Budget/TestData/Budget_GUITestData_ModifyReservation.xlsx
+++ b/src/Budget/TestData/Budget_GUITestData_ModifyReservation.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Budget_GUI" sheetId="1" r:id="rId1"/>
     <sheet name="Walkup_Rental" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Budget_GUI!$A$1:$AW$11</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,8 +27,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Doris Anto Pauline</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doris Anto Pauline:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Changed location from FAI to JFK</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doris Anto Pauline:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Changed location from MIA to BOS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doris Anto Pauline:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Changed location from RST to MSP</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="189">
   <si>
     <t>REGION</t>
   </si>
@@ -375,33 +460,9 @@
     <t>https://uat.ccrgservices.com/wizardgui/ui/wizard.jsf?i_brand=i-budget&amp;mnemonic=</t>
   </si>
   <si>
-    <t>07856117US3</t>
-  </si>
-  <si>
-    <t>USA_TCA_001_NonPref_06Hrs_Base_rate_Lastname</t>
-  </si>
-  <si>
-    <t>USA_TCA_002_NonPref_1day_6hrs_C-cargroup_Firstname</t>
-  </si>
-  <si>
-    <t>07856135US0</t>
-  </si>
-  <si>
-    <t>Modify a res with Lastname for the created reservation of 6hrs base rate</t>
-  </si>
-  <si>
-    <t>Modify a res with firstname for the created reservation of 1day_6hrs_C-cargroup</t>
-  </si>
-  <si>
-    <t>MCO</t>
-  </si>
-  <si>
     <t>BUDGET</t>
   </si>
   <si>
-    <t>https://uat.ccrgservices.com/wizardgui2/ui/wizard.jsf?i_brand=i-budget&amp;mnemonic=</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -409,13 +470,220 @@
   </si>
   <si>
     <t>Leonardo</t>
+  </si>
+  <si>
+    <t>TCB_002_NonFast_1Dy_BCD-A</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>Avis18nov$</t>
+  </si>
+  <si>
+    <t>07962287US4</t>
+  </si>
+  <si>
+    <t>07962293US3</t>
+  </si>
+  <si>
+    <t>07962338US6</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>5424321019208021</t>
+  </si>
+  <si>
+    <t>No reader/reader not working</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>4323723368710009</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>1147358</t>
+  </si>
+  <si>
+    <t>0880KC2</t>
+  </si>
+  <si>
+    <t>TCB_011_NonFast_2Dys_One_Way_Fee_Cool_Car</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>11/21/18</t>
+  </si>
+  <si>
+    <t>11/22/18</t>
+  </si>
+  <si>
+    <t>$74.09</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 1 day for a Non Fastbreak Customerbreak Customer with BCD Type A (Group Association) with Lastname</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 2 days for a Non Fastbreak Customerbreak Customer with One Way Fee Cool_Car with FTN number</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>$87.00</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>$119.99</t>
+  </si>
+  <si>
+    <t>07962339US0</t>
+  </si>
+  <si>
+    <t>TCB_012_NonFast_2Dys_One_Way_Fee_Counter_Product</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>bos</t>
+  </si>
+  <si>
+    <t>bna</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>oak</t>
+  </si>
+  <si>
+    <t>msp</t>
+  </si>
+  <si>
+    <t>phl</t>
+  </si>
+  <si>
+    <t>TCB_013_NonFast_2Dys_One_Way_Fee_BCD-G_Govt</t>
+  </si>
+  <si>
+    <t>TCB_014_NonFast_2Dys_BCD-S</t>
+  </si>
+  <si>
+    <t>Create a Reservation in US Corporate Station for (Daily) 2 days for a Non Fastbreak Customerbreak Customer with BCD S (TeleSales)</t>
+  </si>
+  <si>
+    <t>TCB_015_NonFast_2Dys_BCD-G_Govt</t>
+  </si>
+  <si>
+    <t>TCB_016_NonFast_2Dys_BCD-F</t>
+  </si>
+  <si>
+    <t>TCB_017_NonFast_2Dys_CPN_Percent_Off</t>
+  </si>
+  <si>
+    <t>TCB_021_NonFast_3Dys_BCD-J</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 2 days for a Non Fastbreak Customerbreak Customer with One Way Fee with RSN | TAB with Lastname</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 2 days for a Non Fastbreak Customerbreak Customer with One Way Fee with BCD G (Government) with car group D</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Station for (Daily) 2 days for a Non Fastbreak Customerbreak Customer with BCD S (TeleSales) with Visa credit card</t>
+  </si>
+  <si>
+    <t>modify a Reservation in US Corporate Station for (Daily) 2 days for a Non Fastbreak Customerbreak Customer with BCD S (TeleSales) with Discover credit card</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 2 days for a Non Fastbreak Customerbreak Customer with BCD F (Field Association) with FTN number</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Airport Station for (Daily) 2 days for a Non Fastbreak Customerbreak Customer with CPN % off with FTN number</t>
+  </si>
+  <si>
+    <t>Modify a Reservation in US Corporate Station for (Daily) 3 days for a Non Fastbreak Customerbreak Customer with BCD J (Leisure Pass) with FTN number</t>
+  </si>
+  <si>
+    <t>07962340US1</t>
+  </si>
+  <si>
+    <t>07962341US2</t>
+  </si>
+  <si>
+    <t>07962342US3</t>
+  </si>
+  <si>
+    <t>07962343US4</t>
+  </si>
+  <si>
+    <t>07962344US5</t>
+  </si>
+  <si>
+    <t>07962354US1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +732,19 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -519,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,8 +850,24 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,11 +1147,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1065,40 +1362,52 @@
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>22</v>
+      <c r="H2" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="U2" s="11"/>
       <c r="V2" s="4"/>
       <c r="W2" s="7"/>
@@ -1108,8 +1417,8 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
-      <c r="AD2" s="13" t="s">
-        <v>116</v>
+      <c r="AD2" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="AE2" s="13"/>
       <c r="AF2" s="4"/>
@@ -1127,7 +1436,9 @@
       <c r="AR2" s="6"/>
       <c r="AS2" s="6"/>
       <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
+      <c r="AU2" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="AV2" s="6"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
@@ -1135,46 +1446,58 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>122</v>
+      <c r="H3" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="4"/>
+      <c r="N3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="4"/>
+      <c r="R3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="U3" s="11"/>
       <c r="V3" s="4"/>
       <c r="W3" s="7"/>
@@ -1184,31 +1507,868 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
-      <c r="AD3" s="13" t="s">
-        <v>119</v>
+      <c r="AD3" s="25" t="s">
+        <v>130</v>
       </c>
       <c r="AE3" s="13"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
+      <c r="AH3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+    </row>
+    <row r="5" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA6" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV6" s="6"/>
+    </row>
+    <row r="7" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA7" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV7" s="6"/>
+    </row>
+    <row r="8" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC8" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD8" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV8" s="6"/>
+    </row>
+    <row r="9" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC9" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD9" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV9" s="6"/>
+    </row>
+    <row r="10" spans="1:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC10" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD10" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV10" s="6"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC11" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD11" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV11" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
